--- a/allo-kapri-fixed-v6 22/server/data/allo-kapri-catalog-SPLIT.xlsx
+++ b/allo-kapri-fixed-v6 22/server/data/allo-kapri-catalog-SPLIT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Downloads/allo-kapri-final-v9.3.7/catalog/allo-kapri-fixed-v6 22/server/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Desktop/allo-kapri-final-v9.3.7/catalog/allo-kapri-fixed-v6 22/server/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE10403-433E-0940-B1EB-4E36EF379195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07233360-0EB6-2A4D-8A0E-6934B29FB302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8880" yWindow="4100" windowWidth="19160" windowHeight="12280" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="62">
   <si>
     <t>model</t>
   </si>
@@ -167,18 +167,12 @@
     <t>macbook pro 2015</t>
   </si>
   <si>
-    <t>macbook pro  touch bar 2018</t>
-  </si>
-  <si>
     <t>macbook pro touch bar 2018</t>
   </si>
   <si>
     <t>macbook pro  touch bar 2019</t>
   </si>
   <si>
-    <t>macbook pro  touch bar 2020</t>
-  </si>
-  <si>
     <t>iPad 10</t>
   </si>
   <si>
@@ -198,6 +192,27 @@
   </si>
   <si>
     <t xml:space="preserve">Cabo  </t>
+  </si>
+  <si>
+    <t>Macbook Pro  Touch Bar 2020</t>
+  </si>
+  <si>
+    <t>Macbook Pro  Touch Bar2020</t>
+  </si>
+  <si>
+    <t>Macbook Pro  Touch Bar 2019</t>
+  </si>
+  <si>
+    <t>Macbook Pro  Touch Bar2018</t>
+  </si>
+  <si>
+    <t>Macbook Pro  Touch Bar 2018</t>
+  </si>
+  <si>
+    <t>Macbook pro 2015</t>
+  </si>
+  <si>
+    <t>Macbook Air 2015</t>
   </si>
 </sst>
 </file>
@@ -622,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1695,7 +1710,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
@@ -1744,7 +1759,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
@@ -1793,7 +1808,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
@@ -1819,7 +1834,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
         <v>42</v>
@@ -1842,7 +1857,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
         <v>42</v>
@@ -1865,7 +1880,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>42</v>
@@ -1891,7 +1906,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>42</v>
@@ -1914,7 +1929,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>42</v>
@@ -1937,7 +1952,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>42</v>
@@ -1960,7 +1975,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>42</v>
@@ -1986,7 +2001,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>42</v>
@@ -2009,7 +2024,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>42</v>
@@ -2032,7 +2047,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>42</v>
@@ -2055,7 +2070,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>42</v>
@@ -2078,7 +2093,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>42</v>
@@ -2101,7 +2116,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>42</v>
@@ -2124,7 +2139,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>42</v>
@@ -2147,7 +2162,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>42</v>
@@ -2159,7 +2174,7 @@
         <v>256</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>899000</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
@@ -2170,7 +2185,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>42</v>
@@ -2182,7 +2197,7 @@
         <v>128</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>755000</v>
       </c>
       <c r="F67" t="s">
         <v>12</v>
@@ -3156,7 +3171,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>42</v>
@@ -3174,12 +3189,12 @@
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>42</v>
@@ -3197,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">

--- a/allo-kapri-fixed-v6 22/server/data/allo-kapri-catalog-SPLIT.xlsx
+++ b/allo-kapri-fixed-v6 22/server/data/allo-kapri-catalog-SPLIT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Desktop/allo-kapri-final-v9.3.7/catalog/allo-kapri-fixed-v6 22/server/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07233360-0EB6-2A4D-8A0E-6934B29FB302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFCA918-CE52-2741-A421-D47FB43E2571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="4100" windowWidth="19160" windowHeight="12280" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="3740" windowWidth="19160" windowHeight="12280" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="58">
   <si>
     <t>model</t>
   </si>
@@ -158,21 +158,12 @@
     <t>ao</t>
   </si>
   <si>
-    <t>macbook air 2015</t>
-  </si>
-  <si>
     <t>macbook</t>
   </si>
   <si>
     <t>macbook pro 2015</t>
   </si>
   <si>
-    <t>macbook pro touch bar 2018</t>
-  </si>
-  <si>
-    <t>macbook pro  touch bar 2019</t>
-  </si>
-  <si>
     <t>iPad 10</t>
   </si>
   <si>
@@ -197,22 +188,19 @@
     <t>Macbook Pro  Touch Bar 2020</t>
   </si>
   <si>
-    <t>Macbook Pro  Touch Bar2020</t>
-  </si>
-  <si>
     <t>Macbook Pro  Touch Bar 2019</t>
   </si>
   <si>
-    <t>Macbook Pro  Touch Bar2018</t>
-  </si>
-  <si>
     <t>Macbook Pro  Touch Bar 2018</t>
   </si>
   <si>
-    <t>Macbook pro 2015</t>
-  </si>
-  <si>
     <t>Macbook Air 2015</t>
+  </si>
+  <si>
+    <t>Macbook Pro  Touch Bar 2028</t>
+  </si>
+  <si>
+    <t>Macbook Pro 2015</t>
   </si>
 </sst>
 </file>
@@ -637,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1710,7 +1698,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
@@ -1728,7 +1716,7 @@
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -1736,7 +1724,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
@@ -1754,12 +1742,12 @@
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
@@ -1777,7 +1765,7 @@
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
@@ -1785,7 +1773,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
         <v>42</v>
@@ -1796,19 +1784,16 @@
       <c r="D50">
         <v>250</v>
       </c>
-      <c r="E50">
-        <v>375500</v>
-      </c>
       <c r="F50" t="s">
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
@@ -1826,7 +1811,7 @@
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
@@ -1834,7 +1819,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
         <v>42</v>
@@ -1852,12 +1837,12 @@
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
         <v>42</v>
@@ -1875,12 +1860,12 @@
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>42</v>
@@ -1898,7 +1883,7 @@
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
@@ -1906,7 +1891,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>42</v>
@@ -1924,12 +1909,12 @@
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>42</v>
@@ -1947,12 +1932,12 @@
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>42</v>
@@ -1970,12 +1955,12 @@
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>42</v>
@@ -1993,7 +1978,7 @@
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H58" t="s">
         <v>14</v>
@@ -2001,7 +1986,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>42</v>
@@ -2019,12 +2004,12 @@
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>42</v>
@@ -2042,12 +2027,12 @@
         <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>42</v>
@@ -2065,12 +2050,12 @@
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>42</v>
@@ -2093,7 +2078,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>42</v>
@@ -2116,7 +2101,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>42</v>
@@ -2139,7 +2124,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>42</v>
@@ -2162,7 +2147,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>42</v>
@@ -2185,7 +2170,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>42</v>
@@ -2228,7 +2213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -3171,7 +3156,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>42</v>
@@ -3189,12 +3174,12 @@
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>42</v>
@@ -3212,7 +3197,7 @@
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
